--- a/supplementary_tables/Table_S3.xlsx
+++ b/supplementary_tables/Table_S3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emosca/Google Drive/FROM_HOME/interactomes/writing/revision2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3660313-8081-FA47-B2C3-A16A2A76D711}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7BDD9-355B-FF4E-A2C2-DD13DF732CBC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7040" yWindow="1840" windowWidth="27640" windowHeight="16940" xr2:uid="{099D086F-A652-0F4F-BD36-DE2C788FBA60}"/>
   </bookViews>
@@ -2574,22 +2574,22 @@
     <t>PARK16</t>
   </si>
   <si>
-    <t>Rheumatoid Arthritis</t>
-  </si>
-  <si>
-    <t>Autistic Spectrum Disorders</t>
-  </si>
-  <si>
-    <t>Ataxias Hereditary</t>
-  </si>
-  <si>
     <t>Cancer</t>
   </si>
   <si>
-    <t>Parkinson’s Disease</t>
-  </si>
-  <si>
     <t>Gene association with the five diseases considered in this study (source: DisGeNET, see article). 1=the gene is associated; 0=the gene is not associated</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>ASDs</t>
+  </si>
+  <si>
+    <t>ATX</t>
+  </si>
+  <si>
+    <t>PD</t>
   </si>
 </sst>
 </file>
@@ -2963,7 +2963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6789C83B-DF08-3E45-8727-EC7F51FDC3B3}">
   <dimension ref="A1:G849"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2978,7 +2980,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -2989,19 +2991,19 @@
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>849</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>850</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>852</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
